--- a/tool/脑洞合集.xlsx
+++ b/tool/脑洞合集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\9.MineCraft\整合包\MultiMC文件\MultiMC实例\猫的旅途 锐意制作中\.minecraft\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A71CCD-A92E-4BD1-99AE-83147F9B163D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CCE80-1833-4BEC-9C4C-350D2175FF1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{CD3639B5-8BA3-4623-8608-71EAB04E5395}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>某个时代会进入永夜停止时间更新（污染）</t>
   </si>
@@ -1278,502 +1279,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="7"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="7"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>

--- a/tool/脑洞合集.xlsx
+++ b/tool/脑洞合集.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\9.MineCraft\整合包\MultiMC文件\MultiMC实例\猫的旅途 锐意制作中\.minecraft\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CCE80-1833-4BEC-9C4C-350D2175FF1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974433DC-7C4B-476E-82E7-1B7DC0F3CE75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{CD3639B5-8BA3-4623-8608-71EAB04E5395}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>某个时代会进入永夜停止时间更新（污染）</t>
   </si>
@@ -416,9 +415,6 @@
   </si>
   <si>
     <t>TR氦三在月球产生IE矿脉</t>
-  </si>
-  <si>
-    <t>IE添加天然气矿脉（产出轻油，不能直接烧，原油也不能直接烧）</t>
   </si>
   <si>
     <t>超净间（合成部分物品，蚀刻AE原件）</t>
@@ -1005,6 +1001,74 @@
   </si>
   <si>
     <t>禁止部分宠物在宝箱生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>末影云母加入合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古冰块加入合成（）末地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菱锰矿加入合成 末地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影角闪石加入合成 末地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸锌矿 末地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOC3矿石箱子铁箱子禁止掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃镐合成添加精准附魔挖冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE添加天然气矿脉（产出轻油，不能直接烧，原油也不能直接烧）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力执行机刷物品。Ban</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力建筑之杖boom ban</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bot符文合成更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一些护甲和建筑胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块消灭器是扳手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分关键性矿物在ess海拉尔世界的群系生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力仓库作为中期存储系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净石英使用熔融纯净沙子加盐浇筑宝石得到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psi光源使用植魔闪光透镜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1341,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1594,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A569565-7144-488B-8386-8CE8F631625A}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E57:E61"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1612,22 +1676,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1655,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>24</v>
@@ -1675,7 +1739,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
@@ -1757,6 +1821,9 @@
       <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="16" t="s">
+        <v>305</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1837,7 +1904,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>34</v>
@@ -1854,7 +1921,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>36</v>
@@ -1871,7 +1938,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>37</v>
@@ -1888,7 +1955,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>38</v>
@@ -1905,7 +1972,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>39</v>
@@ -1922,7 +1989,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>40</v>
@@ -1939,7 +2006,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>41</v>
@@ -1956,7 +2023,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>43</v>
@@ -1968,12 +2035,12 @@
         <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>44</v>
@@ -1985,12 +2052,12 @@
         <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>45</v>
@@ -2002,12 +2069,12 @@
         <v>74</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>48</v>
@@ -2019,12 +2086,12 @@
         <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>59</v>
@@ -2036,12 +2103,12 @@
         <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>60</v>
@@ -2053,12 +2120,12 @@
         <v>84</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>61</v>
@@ -2070,12 +2137,12 @@
         <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>63</v>
@@ -2087,12 +2154,12 @@
         <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>79</v>
@@ -2104,63 +2171,75 @@
         <v>87</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -2168,7 +2247,7 @@
         <v>114</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>109</v>
@@ -2182,588 +2261,639 @@
         <v>128</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>130</v>
+        <v>330</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="4" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D85" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D86" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D87" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D88" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D125" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D126" s="6" t="s">
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="s">
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D128" s="6" t="s">
-        <v>311</v>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
